--- a/docs/MILIMED ablation study.xlsx
+++ b/docs/MILIMED ablation study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milic\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E63254E5-DD8E-445C-B58B-9B718A20F23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FF33BF-0EBF-4CCD-89E1-AE74E6AC2F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,24 +115,10 @@
     <t>Final Ensemble 1</t>
   </si>
   <si>
-    <t>Ensembled models 1,2,3,4 with weights [0.10, 0.30, 0.30, 0.30]
-Calculate negative class confidence
-Border cell confidence decrease for all classes
-Outlier cell confidence decrease for all classes
-Weight the final cell class confidence with mean cell class confidence from the same image (custom weight per class)</t>
-  </si>
-  <si>
     <t>113.1M</t>
   </si>
   <si>
     <t>Final Ensemble 2</t>
-  </si>
-  <si>
-    <t>Ensembled models 1,2,4 with weights [0.20, 0.40, 0.40]
-Calculate negative class confidence
-Border cell confidence decrease for all classes
-Outlier cell confidence decrease for all classes
-Weight the final cell class confidence with mean cell class confidence from the same image (0.7 cell confidence * 0.3 image mean confidence)</t>
   </si>
   <si>
     <t>37.1M</t>
@@ -169,6 +155,20 @@
   </si>
   <si>
     <t>No checkpoint ensemble</t>
+  </si>
+  <si>
+    <t>Ensembled models 1,2,4 with weights [0.20, 0.40, 0.40]
+Calculate negative class confidence
+Border cell confidence decrease for all classes
+Outlier cell confidence decrease for all classes
+Weight the final cell output label scores with average cell output label scores from the same image scene (0.7 * cell output + 0.3 * average image scene cell output)</t>
+  </si>
+  <si>
+    <t>Ensembled models 1,2,3,4 with weights [0.10, 0.30, 0.30, 0.30]
+Calculate negative class confidence
+Border cell confidence decrease for all classes
+Outlier cell confidence decrease for all classes
+Weight the final cell output label scores with average cell output label scores from the same image scene (custom weight per each class)</t>
   </si>
 </sst>
 </file>
@@ -477,23 +477,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,6 +485,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,8 +821,8 @@
   </sheetPr>
   <dimension ref="A1:Y451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -835,14 +835,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -864,12 +864,12 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="12.75">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -891,22 +891,22 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="12.75">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="36" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1"/>
@@ -930,12 +930,12 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="12.75">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1120,10 +1120,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>22</v>
       </c>
       <c r="E9" s="29">
         <v>0.54388999999999998</v>
@@ -1156,13 +1156,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="28">
         <v>0.54361000000000004</v>
@@ -1218,14 +1218,14 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="12.75">
-      <c r="A12" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
+      <c r="A12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1247,12 +1247,12 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="12.75">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1278,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>3</v>
@@ -1313,14 +1313,14 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="15">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>9</v>
@@ -1352,12 +1352,12 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="15">
-      <c r="A16" s="31"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="9">
         <v>2</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>9</v>
@@ -1389,12 +1389,12 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="15">
-      <c r="A17" s="31"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="9">
         <v>3</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>9</v>
@@ -1426,12 +1426,12 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="15">
-      <c r="A18" s="31"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="13">
         <v>4</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>9</v>
@@ -1463,12 +1463,12 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="15">
-      <c r="A19" s="32"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="9">
         <v>5</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>9</v>
@@ -1500,14 +1500,14 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="15">
-      <c r="A20" s="30" t="s">
-        <v>33</v>
+      <c r="A20" s="41" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="9">
         <v>6</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>15</v>
@@ -1539,12 +1539,12 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="15">
-      <c r="A21" s="31"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="9">
         <v>7</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>15</v>
@@ -1576,12 +1576,12 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="15">
-      <c r="A22" s="31"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="9">
         <v>8</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>15</v>
@@ -1613,12 +1613,12 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="15">
-      <c r="A23" s="31"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="9">
         <v>9</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>15</v>
@@ -1650,12 +1650,12 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="15">
-      <c r="A24" s="31"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="9">
         <v>10</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>15</v>
@@ -1687,17 +1687,17 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="15">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="9">
         <v>11</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="26">
         <v>0.54388999999999998</v>
@@ -1726,15 +1726,15 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="15">
-      <c r="A26" s="31"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="9">
         <v>12</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="26">
         <v>0.53434999999999999</v>
@@ -1763,15 +1763,15 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15">
-      <c r="A27" s="31"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="9">
         <v>13</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="26">
         <v>0.53019000000000005</v>
@@ -1800,15 +1800,15 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="15">
-      <c r="A28" s="31"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="9">
         <v>14</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="26">
         <v>0.54020999999999997</v>
@@ -1837,15 +1837,15 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15">
-      <c r="A29" s="31"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="9">
         <v>15</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="26">
         <v>0.54384999999999994</v>
@@ -1874,15 +1874,15 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15">
-      <c r="A30" s="32"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="9">
         <v>16</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="27">
         <v>0.54430000000000001</v>
@@ -1911,17 +1911,17 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15">
-      <c r="A31" s="30" t="s">
-        <v>23</v>
+      <c r="A31" s="41" t="s">
+        <v>22</v>
       </c>
       <c r="B31" s="9">
         <v>17</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E31" s="23">
         <v>0.54361000000000004</v>
@@ -1950,15 +1950,15 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="15">
-      <c r="A32" s="31"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="9">
         <v>18</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E32" s="23">
         <v>0.53152999999999995</v>
@@ -1987,15 +1987,15 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="15">
-      <c r="A33" s="31"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="9">
         <v>19</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E33" s="23">
         <v>0.52954000000000001</v>
@@ -2024,15 +2024,15 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="15">
-      <c r="A34" s="31"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="9">
         <v>20</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E34" s="23">
         <v>0.53991999999999996</v>
@@ -2061,15 +2061,15 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="15">
-      <c r="A35" s="31"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="9">
         <v>21</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E35" s="23">
         <v>0.54357</v>
@@ -2098,15 +2098,15 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15">
-      <c r="A36" s="32"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="9">
         <v>22</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E36" s="22">
         <v>0.54432000000000003</v>
@@ -13335,18 +13335,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A15:A19"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="A12:F13"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A15:A19"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
